--- a/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_6_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1344598.531628411</v>
+        <v>1344156.239880679</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>106.3377488988406</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>312.9376297720602</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>147.5177662674267</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -826,13 +826,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4103795270858</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>39.36562499212368</v>
+        <v>83.66442019340725</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>25.13775189891358</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1133,19 +1133,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.49512077555119</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>319.0532006542405</v>
       </c>
     </row>
     <row r="9">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>129.6305204384848</v>
       </c>
       <c r="U13" t="n">
-        <v>230.197158841866</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1594,7 +1594,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>102.1509188080624</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,13 +1822,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>41.36780623478325</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1904,7 +1904,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026568</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2005,7 +2005,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>25.13775189891349</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,10 +2065,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.08758251923085</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2239,25 +2239,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>98.26334559068103</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>9.822886933062307</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,7 +2296,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2305,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686437</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,7 +2533,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>160.3366336391605</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2716,22 +2716,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>148.0129566003204</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399292</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3013,7 +3013,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>105.9895873875638</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>108.1577655104151</v>
       </c>
       <c r="F34" t="n">
         <v>160.045668847563</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>108.1577655104155</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>158.3362093704343</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8084666607368</v>
+        <v>230.8084666607369</v>
       </c>
       <c r="U34" t="n">
         <v>267.2851163790766</v>
@@ -3250,7 +3250,7 @@
         <v>262.00639215359</v>
       </c>
       <c r="X34" t="n">
-        <v>230.0407699530307</v>
+        <v>230.0407699530308</v>
       </c>
       <c r="Y34" t="n">
         <v>213.9818529915332</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C37" t="n">
         <v>134.5782361172335</v>
@@ -3430,7 +3430,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E37" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F37" t="n">
         <v>134.4685551105455</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T38" t="n">
         <v>183.0417138731735</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D40" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F40" t="n">
         <v>134.4685551105455</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360707</v>
       </c>
       <c r="H40" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448712</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S40" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T40" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U40" t="n">
         <v>241.7080026420591</v>
@@ -3721,10 +3721,10 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W40" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X40" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y40" t="n">
         <v>188.4047392545157</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C43" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D43" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F43" t="n">
         <v>134.4685551105455</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448712</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T43" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U43" t="n">
         <v>241.7080026420591</v>
@@ -3958,10 +3958,10 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W43" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X43" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y43" t="n">
         <v>188.4047392545157</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C46" t="n">
         <v>134.5782361172335</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F46" t="n">
         <v>134.4685551105455</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448712</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T46" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U46" t="n">
         <v>241.7080026420591</v>
@@ -4195,10 +4195,10 @@
         <v>243.2197513454117</v>
       </c>
       <c r="W46" t="n">
-        <v>236.4292784165725</v>
+        <v>236.4292784165724</v>
       </c>
       <c r="X46" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y46" t="n">
         <v>188.4047392545157</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2037.860874915021</v>
+        <v>249.7409426487466</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.960144928322</v>
+        <v>226.8806167024507</v>
       </c>
       <c r="D2" t="n">
-        <v>1187.667524113322</v>
+        <v>119.4687491278642</v>
       </c>
       <c r="E2" t="n">
-        <v>761.6905842611794</v>
+        <v>97.53221331612585</v>
       </c>
       <c r="F2" t="n">
-        <v>445.5919683298054</v>
+        <v>76.44843554593015</v>
       </c>
       <c r="G2" t="n">
-        <v>41.25290591925403</v>
+        <v>76.14977717578284</v>
       </c>
       <c r="H2" t="n">
-        <v>41.25290591925403</v>
+        <v>76.14977717578284</v>
       </c>
       <c r="I2" t="n">
-        <v>41.25290591925403</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J2" t="n">
-        <v>41.25290591925403</v>
+        <v>403.8563647361495</v>
       </c>
       <c r="K2" t="n">
-        <v>41.25290591925403</v>
+        <v>914.3610754869184</v>
       </c>
       <c r="L2" t="n">
-        <v>531.1311637103958</v>
+        <v>1424.865786237687</v>
       </c>
       <c r="M2" t="n">
-        <v>1041.635874461164</v>
+        <v>1935.370496988456</v>
       </c>
       <c r="N2" t="n">
-        <v>1552.140585211933</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="O2" t="n">
-        <v>2062.645295962701</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="P2" t="n">
-        <v>2062.645295962701</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="Q2" t="n">
-        <v>2062.645295962701</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="R2" t="n">
-        <v>2062.645295962701</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="S2" t="n">
-        <v>2062.645295962701</v>
+        <v>1958.278001835843</v>
       </c>
       <c r="T2" t="n">
-        <v>2062.645295962701</v>
+        <v>1737.352430880476</v>
       </c>
       <c r="U2" t="n">
-        <v>2062.645295962701</v>
+        <v>1478.997521476888</v>
       </c>
       <c r="V2" t="n">
-        <v>2062.645295962701</v>
+        <v>1478.997521476888</v>
       </c>
       <c r="W2" t="n">
-        <v>2062.645295962701</v>
+        <v>1082.606171777235</v>
       </c>
       <c r="X2" t="n">
-        <v>2054.965701170853</v>
+        <v>670.8861729449823</v>
       </c>
       <c r="Y2" t="n">
-        <v>2053.668835166147</v>
+        <v>669.5893069402766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>821.0811564136467</v>
+        <v>608.3763969507092</v>
       </c>
       <c r="C3" t="n">
-        <v>703.5752529311515</v>
+        <v>490.870493468214</v>
       </c>
       <c r="D3" t="n">
-        <v>599.7352944464365</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>495.0333607193737</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>401.3875304022778</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>307.3337586198818</v>
+        <v>94.62899915694446</v>
       </c>
       <c r="H3" t="n">
-        <v>253.9576653821914</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I3" t="n">
-        <v>261.4043083441033</v>
+        <v>48.69954888116589</v>
       </c>
       <c r="J3" t="n">
-        <v>261.4043083441033</v>
+        <v>48.69954888116589</v>
       </c>
       <c r="K3" t="n">
-        <v>771.9090190948718</v>
+        <v>559.2042596319347</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.97579826445</v>
+        <v>559.2042596319347</v>
       </c>
       <c r="M3" t="n">
-        <v>1005.97579826445</v>
+        <v>1069.708970382704</v>
       </c>
       <c r="N3" t="n">
-        <v>1005.97579826445</v>
+        <v>1257.416515664292</v>
       </c>
       <c r="O3" t="n">
-        <v>1005.97579826445</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="P3" t="n">
-        <v>1516.480509015219</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="Q3" t="n">
-        <v>1980.625985877998</v>
+        <v>1767.921226415061</v>
       </c>
       <c r="R3" t="n">
-        <v>2062.645295962701</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>1981.321048523956</v>
+        <v>1768.616289061018</v>
       </c>
       <c r="T3" t="n">
-        <v>1839.441112821634</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>1654.672916741271</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>1449.699777880537</v>
+        <v>1236.995018417599</v>
       </c>
       <c r="W3" t="n">
-        <v>1253.178400713754</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>1089.701054480417</v>
+        <v>876.9962950174796</v>
       </c>
       <c r="Y3" t="n">
-        <v>950.0081658337094</v>
+        <v>737.303406370772</v>
       </c>
     </row>
     <row r="4">
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.7857293542022</v>
+        <v>990.1361465659645</v>
       </c>
       <c r="C4" t="n">
-        <v>370.7778846396297</v>
+        <v>818.1635834448805</v>
       </c>
       <c r="D4" t="n">
-        <v>207.4611117664005</v>
+        <v>654.8468105716512</v>
       </c>
       <c r="E4" t="n">
-        <v>41.25290591925403</v>
+        <v>488.6386047245047</v>
       </c>
       <c r="F4" t="n">
-        <v>41.25290591925403</v>
+        <v>316.7768304990651</v>
       </c>
       <c r="G4" t="n">
-        <v>41.25290591925403</v>
+        <v>185.0491744110997</v>
       </c>
       <c r="H4" t="n">
-        <v>41.25290591925403</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="I4" t="n">
-        <v>41.25290591925403</v>
+        <v>41.25290591925405</v>
       </c>
       <c r="J4" t="n">
-        <v>41.25290591925403</v>
+        <v>98.74423414341206</v>
       </c>
       <c r="K4" t="n">
-        <v>267.7805071250912</v>
+        <v>325.2718353492493</v>
       </c>
       <c r="L4" t="n">
-        <v>520.9405192739885</v>
+        <v>679.9611566436701</v>
       </c>
       <c r="M4" t="n">
-        <v>912.1263142442392</v>
+        <v>912.1263142442401</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.617825120275</v>
+        <v>1289.617825120276</v>
       </c>
       <c r="O4" t="n">
-        <v>1645.045953800038</v>
+        <v>1645.045953800039</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.645165721939</v>
+        <v>1935.64516572194</v>
       </c>
       <c r="Q4" t="n">
-        <v>2062.645295962701</v>
+        <v>2062.645295962702</v>
       </c>
       <c r="R4" t="n">
         <v>2015.606682649875</v>
@@ -4519,19 +4519,19 @@
         <v>2015.606682649875</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.422234150179</v>
+        <v>2015.606682649875</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.710766758208</v>
+        <v>1733.895215257904</v>
       </c>
       <c r="W4" t="n">
-        <v>1178.858362930721</v>
+        <v>1459.042811430417</v>
       </c>
       <c r="X4" t="n">
-        <v>936.2944663765257</v>
+        <v>1216.478914876222</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.9516980662678</v>
+        <v>990.1361465659645</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2095.759537287837</v>
+        <v>630.5162044197334</v>
       </c>
       <c r="C5" t="n">
-        <v>2055.996279720035</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>1632.703658905035</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4568,49 +4568,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335517</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.864363543668</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2111.567497538963</v>
+        <v>1050.364568711263</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>983.8830790816388</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>811.9105159605548</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>648.5937430873255</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>482.385537240179</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4747,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2199.519583877615</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2199.519583877615</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1917.808116485644</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1642.955712658157</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1400.391816103962</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1174.049047793704</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2150.131759924241</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4805,22 +4805,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M8" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4829,25 +4829,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2174.916180971921</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2174.916180971921</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.236586180072</v>
+        <v>872.0540642705591</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175367</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>1417.526784297715</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1853.185855629757</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -5027,10 +5027,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5039,25 +5039,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>1852.677416841654</v>
       </c>
       <c r="M11" t="n">
-        <v>2467.904347614083</v>
+        <v>2856.963518260712</v>
       </c>
       <c r="N11" t="n">
-        <v>3444.155406100784</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O11" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409524</v>
@@ -5069,7 +5069,7 @@
         <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5081,7 +5081,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5121,25 +5121,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>1446.844867123559</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M12" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.0438447866367</v>
+        <v>712.162588717844</v>
       </c>
       <c r="C13" t="n">
-        <v>202.0712816655526</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="D13" t="n">
-        <v>202.0712816655526</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E13" t="n">
-        <v>202.0712816655526</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0712816655526</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
         <v>202.0712816655526</v>
@@ -5221,28 +5221,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1981.640773703258</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.680349582613</v>
+        <v>1701.456325203563</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.968882190642</v>
+        <v>1419.744857811592</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.116478363155</v>
+        <v>1144.892453984105</v>
       </c>
       <c r="X13" t="n">
-        <v>790.5525818089603</v>
+        <v>902.3285574299096</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.2098134987024</v>
+        <v>902.3285574299096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5279,25 +5279,25 @@
         <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2110.0395278175</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>3086.290586304201</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291426</v>
@@ -5352,31 +5352,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>543.5554397491846</v>
+        <v>855.9100933510681</v>
       </c>
       <c r="C16" t="n">
-        <v>440.3726934784146</v>
+        <v>683.9375302299842</v>
       </c>
       <c r="D16" t="n">
-        <v>440.3726934784146</v>
+        <v>683.9375302299842</v>
       </c>
       <c r="E16" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5461,25 +5461,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.48047715319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.628073325704</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X16" t="n">
-        <v>960.0641767715085</v>
+        <v>1272.418830373392</v>
       </c>
       <c r="Y16" t="n">
-        <v>733.7214084612503</v>
+        <v>1046.076062063134</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5513,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>195.4640539534674</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>195.4640539534674</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572744</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991802</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291426</v>
@@ -5555,7 +5555,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5589,31 +5589,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>730.647150085061</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>730.647150085061</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N18" t="n">
-        <v>730.647150085061</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>778.6022263052664</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C19" t="n">
-        <v>606.6296631841824</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841824</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>440.4214573370359</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5695,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2257.324072234196</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2257.324072234196</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2257.324072234196</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>2257.324072234196</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X19" t="n">
-        <v>1032.493025844838</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y19" t="n">
-        <v>968.7681950173321</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291426</v>
@@ -5829,25 +5829,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683197</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>869.7150043171356</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>706.3982314439063</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1900255967598</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713202</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5935,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2272.793632805763</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2029.454285031663</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1749.269836531967</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1749.269836531967</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1474.41743270448</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906431</v>
+        <v>1231.853536150285</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803853</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>325.1003961287815</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>1040.608704104281</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6063,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6169,16 +6169,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
         <v>1380.062088156358</v>
@@ -6224,28 +6224,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6300,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>1529.586448057074</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M27" t="n">
-        <v>1529.586448057074</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N27" t="n">
-        <v>1529.586448057074</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O27" t="n">
-        <v>1529.586448057074</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1013.622061704626</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>841.6494985835419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058286</v>
@@ -6400,34 +6400,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q28" t="n">
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1822.202732251165</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1672.694695281144</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.130798726949</v>
+        <v>862.6457877746758</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.788030416692</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6540,28 +6540,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>182.4995693572504</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K30" t="n">
-        <v>772.98449592559</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L30" t="n">
-        <v>772.98449592559</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M30" t="n">
-        <v>1828.971033901635</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N30" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.398494797112</v>
+        <v>373.4203922683196</v>
       </c>
       <c r="C31" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058286</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1445.967421099803</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>1338.907231819436</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y31" t="n">
-        <v>1112.564463509178</v>
+        <v>563.5863609803853</v>
       </c>
     </row>
     <row r="32">
@@ -6707,16 +6707,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6774,31 +6774,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>534.9883540242422</v>
+        <v>534.9883540242417</v>
       </c>
       <c r="C34" t="n">
-        <v>373.2152733633826</v>
+        <v>373.2152733633822</v>
       </c>
       <c r="D34" t="n">
-        <v>373.2152733633826</v>
+        <v>373.2152733633822</v>
       </c>
       <c r="E34" t="n">
-        <v>373.2152733633826</v>
+        <v>263.9650051710437</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5529815981675</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G34" t="n">
-        <v>211.5529815981675</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058286</v>
@@ -6862,7 +6862,7 @@
         <v>406.3146683543556</v>
       </c>
       <c r="L34" t="n">
-        <v>771.0005024080423</v>
+        <v>771.0005024080422</v>
       </c>
       <c r="M34" t="n">
         <v>1172.182810137559</v>
@@ -6877,13 +6877,13 @@
         <v>2225.691199893056</v>
       </c>
       <c r="Q34" t="n">
-        <v>2362.687842893084</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="R34" t="n">
-        <v>2362.687842893084</v>
+        <v>2362.687842893085</v>
       </c>
       <c r="S34" t="n">
-        <v>2202.752277872443</v>
+        <v>2202.752277872444</v>
       </c>
       <c r="T34" t="n">
         <v>1969.612412558568</v>
@@ -6898,10 +6898,10 @@
         <v>1163.462540220087</v>
       </c>
       <c r="X34" t="n">
-        <v>931.098126126117</v>
+        <v>931.0981261261167</v>
       </c>
       <c r="Y34" t="n">
-        <v>714.9548402760834</v>
+        <v>714.9548402760831</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6941,31 +6941,31 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.424803215118</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>1461.424803215118</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701819</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.820511852631</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010559</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.185270514742</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R35" t="n">
         <v>4564.741605396644</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151239</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U35" t="n">
         <v>4089.198683555192</v>
@@ -6974,13 +6974,13 @@
         <v>3767.744219562896</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X35" t="n">
         <v>3031.702772793898</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630244</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K36" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L36" t="n">
-        <v>91.29483210793289</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M36" t="n">
-        <v>264.5027292680902</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N36" t="n">
-        <v>1353.81767574096</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O36" t="n">
-        <v>1353.81767574096</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P36" t="n">
-        <v>1353.81767574096</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q36" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619904</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
         <v>91.29483210793289</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557549</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O37" t="n">
         <v>2066.015649511878</v>
@@ -7132,7 +7132,7 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X37" t="n">
         <v>1266.670133721406</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220167</v>
       </c>
       <c r="C38" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D38" t="n">
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815417</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7178,10 +7178,10 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.424803215117</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>1461.424803215117</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
         <v>2437.675861701818</v>
@@ -7202,22 +7202,22 @@
         <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630243</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M39" t="n">
-        <v>91.29483210793288</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N39" t="n">
-        <v>1180.609778580803</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="O39" t="n">
-        <v>1899.982462688443</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P39" t="n">
-        <v>1899.982462688443</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q39" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R39" t="n">
         <v>1899.982462688443</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619904</v>
+        <v>922.2312984619911</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223613</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305862</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648939</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209083</v>
       </c>
       <c r="G40" t="n">
         <v>262.7897670965941</v>
@@ -7327,22 +7327,22 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793286</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M40" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N40" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O40" t="n">
         <v>2066.015649511878</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,7 +7366,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7418,7 +7418,7 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2099.031646519604</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="N41" t="n">
         <v>2437.675861701818</v>
@@ -7485,31 +7485,31 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="J42" t="n">
-        <v>91.29483210793288</v>
+        <v>98.74147506984471</v>
       </c>
       <c r="K42" t="n">
-        <v>91.29483210793288</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="L42" t="n">
-        <v>843.9959247123975</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="M42" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="N42" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="O42" t="n">
-        <v>1899.982462688443</v>
+        <v>689.2264016381843</v>
       </c>
       <c r="P42" t="n">
-        <v>1899.982462688443</v>
+        <v>1405.424118676682</v>
       </c>
       <c r="Q42" t="n">
-        <v>1899.982462688443</v>
+        <v>1869.569595539461</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
         <v>155.0284494862027</v>
@@ -7567,19 +7567,19 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7591,13 +7591,13 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S43" t="n">
         <v>2409.146943361583</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850696</v>
@@ -7606,10 +7606,10 @@
         <v>1712.016532340179</v>
       </c>
       <c r="W43" t="n">
-        <v>1473.199079394147</v>
+        <v>1473.199079394146</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721405</v>
       </c>
       <c r="Y43" t="n">
         <v>1076.362316292602</v>
@@ -7652,22 +7652,22 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>2099.031646519604</v>
+        <v>1578.98113809702</v>
       </c>
       <c r="M44" t="n">
-        <v>2099.031646519604</v>
+        <v>1578.98113809702</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701818</v>
+        <v>2555.23219658372</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.82051185263</v>
+        <v>3400.376846734533</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010558</v>
+        <v>4108.65612589246</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514741</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="R44" t="n">
         <v>4564.741605396644</v>
@@ -7722,28 +7722,28 @@
         <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984471</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J45" t="n">
-        <v>370.4389643494358</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M45" t="n">
-        <v>960.9238909177753</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="N45" t="n">
-        <v>960.9238909177753</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="O45" t="n">
-        <v>960.9238909177753</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P45" t="n">
-        <v>1435.836985825663</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q45" t="n">
         <v>1899.982462688443</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
-        <v>155.0284494862028</v>
+        <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
         <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910042</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557546</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
         <v>2066.015649511878</v>
@@ -7828,22 +7828,22 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S46" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T46" t="n">
         <v>2201.842546468938</v>
       </c>
       <c r="U46" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.199079394146</v>
+        <v>1473.199079394147</v>
       </c>
       <c r="X46" t="n">
         <v>1266.670133721406</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>551.4259247854849</v>
       </c>
       <c r="L2" t="n">
-        <v>533.1385654539782</v>
+        <v>553.9733664232984</v>
       </c>
       <c r="M2" t="n">
-        <v>553.0925868901071</v>
+        <v>553.0925868901073</v>
       </c>
       <c r="N2" t="n">
-        <v>552.9409468251214</v>
+        <v>165.840025838735</v>
       </c>
       <c r="O2" t="n">
-        <v>553.0522833466994</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8058,25 +8058,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>538.0605578240087</v>
+        <v>538.0605578240089</v>
       </c>
       <c r="L3" t="n">
-        <v>258.9461767845107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>538.7581045030036</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>210.9466093060547</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>538.8332137128978</v>
       </c>
       <c r="P3" t="n">
-        <v>537.432165195504</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,16 +8134,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>277.6359438844863</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>257.0857000940819</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8216,10 +8216,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8231,13 +8231,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>205.0632038737858</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8298,7 +8298,7 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>549.9687528290792</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8307,13 +8307,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8453,25 +8453,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>298.7878524343791</v>
       </c>
       <c r="L8" t="n">
-        <v>205.7998844961774</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,31 +8526,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>463.1564485244919</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983318</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>717.3655137896236</v>
       </c>
       <c r="M11" t="n">
-        <v>765.1769988726429</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,13 +8769,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>509.7471451685728</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>178.6791504825602</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8790,7 +8790,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>500.16489571931</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8948,7 +8948,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>54.56363491934506</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9021,13 +9021,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>509.0028996591719</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>123.5223236751208</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9185,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9237,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9255,7 +9255,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P18" t="n">
         <v>745.2028786174529</v>
@@ -9264,7 +9264,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9407,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>227.4584616419597</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9492,13 +9492,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>254.4681238522057</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,13 +9644,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9659,7 +9659,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9732,13 +9732,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,13 +9890,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>867.7664080100944</v>
@@ -9966,13 +9966,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>254.0801860791125</v>
       </c>
       <c r="P27" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,22 +10118,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>101.6180395367897</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10209,10 +10209,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,7 +10367,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10422,19 +10422,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,13 +10443,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>333.2799255788761</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10671,22 +10671,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>198.0542523912747</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>333.2799255788752</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10911,19 +10911,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>379.4961267198499</v>
       </c>
       <c r="N41" t="n">
-        <v>379.3444866548641</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11133,19 +11133,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,13 +11154,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>54.39298722139783</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>452.0236981868574</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>379.3444866548641</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11318,7 +11318,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,16 +11385,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>501.4810380814832</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23425,10 +23425,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.2754338578742</v>
       </c>
       <c r="U13" t="n">
-        <v>47.1854451728328</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>68.1019186818107</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23668,10 +23668,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7704513538697</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>21.43047528078509</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>160.9917581079245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>71.98949189919212</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>158.6108100729942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>118.5577190788909</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>124.0909231888917</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.98949189919227</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,10 +24886,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>134.1486702010891</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>151.5861175088748</v>
       </c>
       <c r="E34" t="n">
-        <v>154.4486361530528</v>
+        <v>46.29087064263778</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>154.496912373088</v>
       </c>
       <c r="H34" t="n">
-        <v>24.1030526608895</v>
+        <v>132.260818171305</v>
       </c>
       <c r="I34" t="n">
-        <v>88.67339494150463</v>
+        <v>88.67339494150464</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.47073954407642</v>
+        <v>36.47073954407644</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-4.463097835850706e-14</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661977.8436037878</v>
+        <v>661977.8436037877</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661977.8436037879</v>
+        <v>661977.8436037878</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="C2" t="n">
         <v>422270.9343080931</v>
@@ -26329,31 +26329,31 @@
         <v>407472.0422746492</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746494</v>
       </c>
       <c r="I2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.0422746488</v>
+        <v>407472.0422746489</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.0422746488</v>
+        <v>407472.042274649</v>
       </c>
       <c r="L2" t="n">
         <v>411660.7822627358</v>
       </c>
       <c r="M2" t="n">
-        <v>422270.9343080929</v>
+        <v>422270.9343080928</v>
       </c>
       <c r="N2" t="n">
-        <v>422270.9343080928</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="O2" t="n">
-        <v>422270.9343080929</v>
+        <v>422270.934308093</v>
       </c>
       <c r="P2" t="n">
-        <v>422270.9343080931</v>
+        <v>422270.934308093</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172809.9698797271</v>
+        <v>172809.9698797272</v>
       </c>
       <c r="C3" t="n">
-        <v>13105.84347019906</v>
+        <v>13105.84347019898</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>134919.6914542163</v>
       </c>
       <c r="K3" t="n">
-        <v>10440.5161731021</v>
+        <v>10440.51617310204</v>
       </c>
       <c r="L3" t="n">
-        <v>8077.99010849773</v>
+        <v>8077.990108497711</v>
       </c>
       <c r="M3" t="n">
         <v>166235.4618077717</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198187.8827951959</v>
+        <v>198178.3750434513</v>
       </c>
       <c r="C4" t="n">
-        <v>191407.8102426621</v>
+        <v>191397.8205092346</v>
       </c>
       <c r="D4" t="n">
-        <v>191407.8102426621</v>
+        <v>191397.8205092345</v>
       </c>
       <c r="E4" t="n">
-        <v>86969.16334991332</v>
+        <v>86952.57750483985</v>
       </c>
       <c r="F4" t="n">
-        <v>86969.16334991332</v>
+        <v>86952.57750483985</v>
       </c>
       <c r="G4" t="n">
-        <v>86969.16334991332</v>
+        <v>86952.57750483984</v>
       </c>
       <c r="H4" t="n">
-        <v>86969.16334991332</v>
+        <v>86952.57750483984</v>
       </c>
       <c r="I4" t="n">
-        <v>86969.16334991332</v>
+        <v>86952.57750483986</v>
       </c>
       <c r="J4" t="n">
-        <v>86969.16334991332</v>
+        <v>86952.57750483986</v>
       </c>
       <c r="K4" t="n">
-        <v>86969.16334991333</v>
+        <v>86952.57750483986</v>
       </c>
       <c r="L4" t="n">
-        <v>90291.73999565346</v>
+        <v>90275.15415058001</v>
       </c>
       <c r="M4" t="n">
-        <v>116377.7805810097</v>
+        <v>116362.4508531702</v>
       </c>
       <c r="N4" t="n">
-        <v>116377.7805810097</v>
+        <v>116362.4508531702</v>
       </c>
       <c r="O4" t="n">
-        <v>116377.7805810097</v>
+        <v>116362.4508531702</v>
       </c>
       <c r="P4" t="n">
-        <v>116377.7805810097</v>
+        <v>116362.4508531702</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64979.80849863306</v>
+        <v>64979.80849863307</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26497,10 +26497,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>78598.94787646881</v>
+        <v>78598.9478764688</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482544</v>
+        <v>72383.20046482542</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482542</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13706.72686546284</v>
+        <v>-13697.21911371849</v>
       </c>
       <c r="C6" t="n">
-        <v>150311.0295578038</v>
+        <v>150321.0192912314</v>
       </c>
       <c r="D6" t="n">
-        <v>163416.8730280029</v>
+        <v>163426.8627614305</v>
       </c>
       <c r="E6" t="n">
-        <v>27013.46017966556</v>
+        <v>26979.01536255474</v>
       </c>
       <c r="F6" t="n">
-        <v>242752.816736306</v>
+        <v>242718.3719191952</v>
       </c>
       <c r="G6" t="n">
-        <v>242752.8167363062</v>
+        <v>242718.3719191954</v>
       </c>
       <c r="H6" t="n">
-        <v>242752.8167363061</v>
+        <v>242718.3719191955</v>
       </c>
       <c r="I6" t="n">
-        <v>242752.8167363059</v>
+        <v>242718.3719191951</v>
       </c>
       <c r="J6" t="n">
-        <v>107833.1252820896</v>
+        <v>107798.6804649788</v>
       </c>
       <c r="K6" t="n">
-        <v>232312.3005632037</v>
+        <v>232277.8557460931</v>
       </c>
       <c r="L6" t="n">
-        <v>234692.1042821158</v>
+        <v>234672.1033959984</v>
       </c>
       <c r="M6" t="n">
-        <v>67274.49145448598</v>
+        <v>67289.82118232547</v>
       </c>
       <c r="N6" t="n">
-        <v>233509.9532622576</v>
+        <v>233525.2829900976</v>
       </c>
       <c r="O6" t="n">
-        <v>233509.9532622578</v>
+        <v>233525.2829900973</v>
       </c>
       <c r="P6" t="n">
-        <v>233509.953262258</v>
+        <v>233525.2829900973</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.6613239906753</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="M2" t="n">
-        <v>25.57711373701747</v>
+        <v>25.57711373701751</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.6613239906753</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="C4" t="n">
-        <v>40.5664891249188</v>
+        <v>40.56648912491858</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.6613239906753</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="K4" t="n">
-        <v>40.5664891249188</v>
+        <v>40.56648912491858</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>584.9575882335668</v>
+        <v>584.9575882335665</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.6613239906753</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="K4" t="n">
-        <v>40.5664891249188</v>
+        <v>40.56648912491858</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>312.7219457080091</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>107.9353102204335</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>22.73507122244641</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>34.1840204816244</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27591,7 +27591,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>338.9673024934256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>383.2660976947092</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27673,16 +27673,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060574</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>215.7682023974454</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.8285004100398</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>82.23069669041803</v>
       </c>
     </row>
     <row r="9">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="C34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="D34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="E34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="F34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="G34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="H34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="I34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="J34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="K34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="L34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="M34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="N34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="O34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="P34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="R34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="S34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="T34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="U34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="V34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="W34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="X34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.09748763562216</v>
+        <v>10.09748763562214</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263964</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="L2" t="n">
-        <v>494.8265230213553</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="M2" t="n">
-        <v>515.6613239906753</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="N2" t="n">
-        <v>515.6613239906753</v>
+        <v>128.560403004289</v>
       </c>
       <c r="O2" t="n">
-        <v>515.6613239906753</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>515.6613239906753</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="L3" t="n">
-        <v>236.4310900702812</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>189.6035810925131</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>515.6613239906756</v>
       </c>
       <c r="P3" t="n">
-        <v>515.6613239906753</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,16 +34854,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>255.7171839887851</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>234.510260202596</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34936,10 +34936,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35009,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35018,7 +35018,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>167.4878420635545</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,31 +35246,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>238.1458997847901</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>440.0596680121639</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="M11" t="n">
-        <v>727.7457359732111</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,13 +35489,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>487.2320584543432</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>155.5823699702323</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632859</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35668,7 +35668,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>19.53098502454859</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>487.2320584543432</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>94.10236418953426</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35905,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P18" t="n">
         <v>723.4320374126243</v>
@@ -35984,7 +35984,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36127,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>205.0592278086264</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,13 +36212,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>225.0481643666192</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,13 +36364,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36379,7 +36379,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,13 +36610,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>845.2513212958648</v>
@@ -36686,13 +36686,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>230.9082963568903</v>
       </c>
       <c r="P27" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,22 +36838,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.0069252034564</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,7 +37087,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16953634689288</v>
+        <v>68.16953634689287</v>
       </c>
       <c r="K34" t="n">
         <v>238.9132464293971</v>
@@ -37245,7 +37245,7 @@
         <v>303.6320451324918</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3804474747757</v>
+        <v>138.3804474747756</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>294.9678831462531</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K37" t="n">
         <v>264.4903601664146</v>
@@ -37546,13 +37546,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>294.9678831462522</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391035</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37786,10 +37786,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="N41" t="n">
-        <v>342.0648638204181</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>30.72006782725369</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391035</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38020,13 +38020,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>413.7116557542344</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>342.0648638204181</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38038,7 +38038,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391035</v>
+        <v>93.7466500839104</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
